--- a/Blatt01/1_2/Codierung.xlsx
+++ b/Blatt01/1_2/Codierung.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,11 +104,11 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -413,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -671,6 +671,40 @@
       </c>
       <c r="L7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f>SUM(B7)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(B7:C7)</f>
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(B7:D7)</f>
+        <v>47</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(B7:E7)</f>
+        <v>146</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(B7:F7)</f>
+        <v>397</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM(B7:G7)</f>
+        <v>745</v>
+      </c>
+      <c r="H9" s="2">
+        <f>SUM(B7:H7)</f>
+        <v>1069</v>
+      </c>
+      <c r="I9" s="2">
+        <f>SUM(B7:I7)</f>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
